--- a/natmiOut/OldD7/LR-pairs_lrc2p/Comp-Itgb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Comp-Itgb3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.648035291369422</v>
+        <v>0.653906</v>
       </c>
       <c r="H2">
-        <v>0.648035291369422</v>
+        <v>1.961718</v>
       </c>
       <c r="I2">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="J2">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N2">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q2">
-        <v>0.9384272995639462</v>
+        <v>2.470743932734</v>
       </c>
       <c r="R2">
-        <v>0.9384272995639462</v>
+        <v>22.236695394606</v>
       </c>
       <c r="S2">
-        <v>0.001566364480493792</v>
+        <v>0.002849621557234393</v>
       </c>
       <c r="T2">
-        <v>0.001566364480493792</v>
+        <v>0.002849621557234393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.648035291369422</v>
+        <v>0.653906</v>
       </c>
       <c r="H3">
-        <v>0.648035291369422</v>
+        <v>1.961718</v>
       </c>
       <c r="I3">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="J3">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q3">
-        <v>2.727610810188433</v>
+        <v>2.833638440086666</v>
       </c>
       <c r="R3">
-        <v>2.727610810188433</v>
+        <v>25.50274596078</v>
       </c>
       <c r="S3">
-        <v>0.004552758313483957</v>
+        <v>0.003268164327876682</v>
       </c>
       <c r="T3">
-        <v>0.004552758313483957</v>
+        <v>0.003268164327876682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.648035291369422</v>
+        <v>0.653906</v>
       </c>
       <c r="H4">
-        <v>0.648035291369422</v>
+        <v>1.961718</v>
       </c>
       <c r="I4">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="J4">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N4">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q4">
-        <v>0.1498935117635013</v>
+        <v>0.1902770553786667</v>
       </c>
       <c r="R4">
-        <v>0.1498935117635013</v>
+        <v>1.712493498408</v>
       </c>
       <c r="S4">
-        <v>0.0002501929268169462</v>
+        <v>0.0002194551979549498</v>
       </c>
       <c r="T4">
-        <v>0.0002501929268169462</v>
+        <v>0.0002194551979549498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.648035291369422</v>
+        <v>0.653906</v>
       </c>
       <c r="H5">
-        <v>0.648035291369422</v>
+        <v>1.961718</v>
       </c>
       <c r="I5">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="J5">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N5">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O5">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P5">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q5">
-        <v>0.2478993034987252</v>
+        <v>0.3147938358986667</v>
       </c>
       <c r="R5">
-        <v>0.2478993034987252</v>
+        <v>2.833144523087999</v>
       </c>
       <c r="S5">
-        <v>0.0004137780986550404</v>
+        <v>0.0003630660745440843</v>
       </c>
       <c r="T5">
-        <v>0.0004137780986550404</v>
+        <v>0.0003630660745440844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>94.12355378380791</v>
+        <v>96.11977900000001</v>
       </c>
       <c r="H6">
-        <v>94.12355378380791</v>
+        <v>288.359337</v>
       </c>
       <c r="I6">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="J6">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N6">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q6">
-        <v>136.3013921912286</v>
+        <v>363.182721644981</v>
       </c>
       <c r="R6">
-        <v>136.3013921912286</v>
+        <v>3268.644494804829</v>
       </c>
       <c r="S6">
-        <v>0.2275058062243066</v>
+        <v>0.4188751813181188</v>
       </c>
       <c r="T6">
-        <v>0.2275058062243066</v>
+        <v>0.4188751813181188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>94.12355378380791</v>
+        <v>96.11977900000001</v>
       </c>
       <c r="H7">
-        <v>94.12355378380791</v>
+        <v>288.359337</v>
       </c>
       <c r="I7">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="J7">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q7">
-        <v>396.1704342545023</v>
+        <v>416.5257707178633</v>
       </c>
       <c r="R7">
-        <v>396.1704342545023</v>
+        <v>3748.73193646077</v>
       </c>
       <c r="S7">
-        <v>0.6612630480021199</v>
+        <v>0.4803981503934668</v>
       </c>
       <c r="T7">
-        <v>0.6612630480021199</v>
+        <v>0.4803981503934668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>94.12355378380791</v>
+        <v>96.11977900000001</v>
       </c>
       <c r="H8">
-        <v>94.12355378380791</v>
+        <v>288.359337</v>
       </c>
       <c r="I8">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="J8">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N8">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q8">
-        <v>21.77120629727093</v>
+        <v>27.96944593224134</v>
       </c>
       <c r="R8">
-        <v>21.77120629727093</v>
+        <v>251.7250133901721</v>
       </c>
       <c r="S8">
-        <v>0.03633914343433292</v>
+        <v>0.03225843642332541</v>
       </c>
       <c r="T8">
-        <v>0.03633914343433292</v>
+        <v>0.03225843642332541</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>94.12355378380791</v>
+        <v>96.11977900000001</v>
       </c>
       <c r="H9">
-        <v>94.12355378380791</v>
+        <v>288.359337</v>
       </c>
       <c r="I9">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="J9">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N9">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O9">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P9">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q9">
-        <v>36.00600729093529</v>
+        <v>46.27257424942133</v>
       </c>
       <c r="R9">
-        <v>36.00600729093529</v>
+        <v>416.453168244792</v>
       </c>
       <c r="S9">
-        <v>0.06009898788230899</v>
+        <v>0.05336826829479301</v>
       </c>
       <c r="T9">
-        <v>0.06009898788230899</v>
+        <v>0.05336826829479302</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.190181070433997</v>
+        <v>0.2341223333333333</v>
       </c>
       <c r="H10">
-        <v>0.190181070433997</v>
+        <v>0.702367</v>
       </c>
       <c r="I10">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="J10">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N10">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q10">
-        <v>0.2754033780759271</v>
+        <v>0.8846169550376667</v>
       </c>
       <c r="R10">
-        <v>0.2754033780759271</v>
+        <v>7.961552595339</v>
       </c>
       <c r="S10">
-        <v>0.0004596861892515093</v>
+        <v>0.001020269041875565</v>
       </c>
       <c r="T10">
-        <v>0.0004596861892515093</v>
+        <v>0.001020269041875565</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.190181070433997</v>
+        <v>0.2341223333333333</v>
       </c>
       <c r="H11">
-        <v>0.190181070433997</v>
+        <v>0.702367</v>
       </c>
       <c r="I11">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="J11">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q11">
-        <v>0.800481008546281</v>
+        <v>1.014546499674444</v>
       </c>
       <c r="R11">
-        <v>0.800481008546281</v>
+        <v>9.130918497069999</v>
       </c>
       <c r="S11">
-        <v>0.001336113111457179</v>
+        <v>0.001170122705953538</v>
       </c>
       <c r="T11">
-        <v>0.001336113111457179</v>
+        <v>0.001170122705953537</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.190181070433997</v>
+        <v>0.2341223333333333</v>
       </c>
       <c r="H12">
-        <v>0.190181070433997</v>
+        <v>0.702367</v>
       </c>
       <c r="I12">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="J12">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N12">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q12">
-        <v>0.04398974700598956</v>
+        <v>0.06812616520577779</v>
       </c>
       <c r="R12">
-        <v>0.04398974700598956</v>
+        <v>0.613135486852</v>
       </c>
       <c r="S12">
-        <v>7.342494964512159E-05</v>
+        <v>7.857301050509004E-05</v>
       </c>
       <c r="T12">
-        <v>7.342494964512159E-05</v>
+        <v>7.857301050509002E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.190181070433997</v>
+        <v>0.2341223333333333</v>
       </c>
       <c r="H13">
-        <v>0.190181070433997</v>
+        <v>0.702367</v>
       </c>
       <c r="I13">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="J13">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N13">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O13">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P13">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q13">
-        <v>0.07275183238801997</v>
+        <v>0.1127077399191111</v>
       </c>
       <c r="R13">
-        <v>0.07275183238801997</v>
+        <v>1.014369659272</v>
       </c>
       <c r="S13">
-        <v>0.0001214328336317407</v>
+        <v>0.000129990971984406</v>
       </c>
       <c r="T13">
-        <v>0.0001214328336317407</v>
+        <v>0.000129990971984406</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.575061367946079</v>
+        <v>0.5856290000000001</v>
       </c>
       <c r="H14">
-        <v>0.575061367946079</v>
+        <v>1.756887</v>
       </c>
       <c r="I14">
-        <v>0.006019263553496365</v>
+        <v>0.00600070068236727</v>
       </c>
       <c r="J14">
-        <v>0.006019263553496365</v>
+        <v>0.006000700682367269</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N14">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q14">
-        <v>0.8327529284165954</v>
+        <v>2.212763453131</v>
       </c>
       <c r="R14">
-        <v>0.8327529284165954</v>
+        <v>19.914871078179</v>
       </c>
       <c r="S14">
-        <v>0.001389979392868313</v>
+        <v>0.002552080915210475</v>
       </c>
       <c r="T14">
-        <v>0.001389979392868313</v>
+        <v>0.002552080915210475</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.575061367946079</v>
+        <v>0.5856290000000001</v>
       </c>
       <c r="H15">
-        <v>0.575061367946079</v>
+        <v>1.756887</v>
       </c>
       <c r="I15">
-        <v>0.006019263553496365</v>
+        <v>0.00600070068236727</v>
       </c>
       <c r="J15">
-        <v>0.006019263553496365</v>
+        <v>0.006000700682367269</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q15">
-        <v>2.420460157990534</v>
+        <v>2.537766660696667</v>
       </c>
       <c r="R15">
-        <v>2.420460157990534</v>
+        <v>22.83989994627</v>
       </c>
       <c r="S15">
-        <v>0.004040081548872734</v>
+        <v>0.002926921923288812</v>
       </c>
       <c r="T15">
-        <v>0.004040081548872734</v>
+        <v>0.002926921923288812</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.575061367946079</v>
+        <v>0.5856290000000001</v>
       </c>
       <c r="H16">
-        <v>0.575061367946079</v>
+        <v>1.756887</v>
       </c>
       <c r="I16">
-        <v>0.006019263553496365</v>
+        <v>0.00600070068236727</v>
       </c>
       <c r="J16">
-        <v>0.006019263553496365</v>
+        <v>0.006000700682367269</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N16">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q16">
-        <v>0.1330143112095146</v>
+        <v>0.1704094497746667</v>
       </c>
       <c r="R16">
-        <v>0.1330143112095146</v>
+        <v>1.533685047972</v>
       </c>
       <c r="S16">
-        <v>0.0002220192150982215</v>
+        <v>0.0001965409831430807</v>
       </c>
       <c r="T16">
-        <v>0.0002220192150982215</v>
+        <v>0.0001965409831430806</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.575061367946079</v>
+        <v>0.5856290000000001</v>
       </c>
       <c r="H17">
-        <v>0.575061367946079</v>
+        <v>1.756887</v>
       </c>
       <c r="I17">
-        <v>0.006019263553496365</v>
+        <v>0.00600070068236727</v>
       </c>
       <c r="J17">
-        <v>0.006019263553496365</v>
+        <v>0.006000700682367269</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N17">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O17">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P17">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q17">
-        <v>0.2199838719919194</v>
+        <v>0.2819249239546667</v>
       </c>
       <c r="R17">
-        <v>0.2199838719919194</v>
+        <v>2.537324315592</v>
       </c>
       <c r="S17">
-        <v>0.0003671833966570958</v>
+        <v>0.0003251568607249018</v>
       </c>
       <c r="T17">
-        <v>0.0003671833966570958</v>
+        <v>0.0003251568607249018</v>
       </c>
     </row>
   </sheetData>
